--- a/StyleSite.xlsx
+++ b/StyleSite.xlsx
@@ -423,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,9 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -536,22 +533,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,16 +557,34 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +953,7 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1243,11 +1258,11 @@
     <row r="13" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1482,10 +1497,10 @@
       <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="38"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1512,10 +1527,10 @@
       <c r="E24" s="27">
         <v>1</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1542,10 +1557,10 @@
       <c r="E25" s="27">
         <v>3</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1572,10 +1587,10 @@
       <c r="E26" s="27">
         <v>1</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="43"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1940,10 +1955,10 @@
       <c r="E42" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="48" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="2"/>
@@ -1972,10 +1987,10 @@
       <c r="E43" s="2">
         <v>5</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="54">
         <v>7</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="54">
         <f>SUM(D43:F43)</f>
         <v>100</v>
       </c>
@@ -2005,10 +2020,10 @@
       <c r="E44" s="2">
         <v>0</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="54">
         <v>6</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="54">
         <f>SUM(D44:F44)</f>
         <v>100</v>
       </c>
@@ -2038,10 +2053,10 @@
       <c r="E45" s="2">
         <v>3</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="54">
         <v>1</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="54">
         <f>SUM(D45:F45)</f>
         <v>102</v>
       </c>
@@ -2172,21 +2187,21 @@
     <row r="51" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
       <c r="N51" s="2"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -2198,17 +2213,17 @@
     <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="34"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
       <c r="N52" s="2"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -2227,7 +2242,7 @@
       <c r="E53" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="31"/>
       <c r="G53" s="17" t="s">
         <v>51</v>
       </c>
@@ -2235,8 +2250,8 @@
       <c r="I53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30" t="s">
         <v>42</v>
@@ -2259,18 +2274,18 @@
       <c r="E54" s="29">
         <v>7</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="31">
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="37">
         <v>8</v>
       </c>
       <c r="N54" s="2"/>
@@ -2284,25 +2299,25 @@
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37">
+      <c r="D55" s="35"/>
+      <c r="E55" s="36">
         <v>7</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="48" t="s">
+      <c r="F55" s="34"/>
+      <c r="G55" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48" t="s">
+      <c r="H55" s="39"/>
+      <c r="I55" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="49">
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="40">
         <v>7</v>
       </c>
       <c r="N55" s="2"/>
@@ -2323,18 +2338,18 @@
       <c r="E56" s="29">
         <v>5</v>
       </c>
-      <c r="F56" s="33"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="31">
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="37">
         <v>6</v>
       </c>
       <c r="N56" s="2"/>
@@ -2355,18 +2370,18 @@
       <c r="E57" s="29">
         <v>9</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="32"/>
       <c r="G57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="31">
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="37">
         <v>6</v>
       </c>
       <c r="N57" s="2"/>
@@ -2387,7 +2402,7 @@
       <c r="E58" s="29">
         <v>7</v>
       </c>
-      <c r="F58" s="33"/>
+      <c r="F58" s="32"/>
       <c r="G58" s="2" t="s">
         <v>44</v>
       </c>
@@ -2398,7 +2413,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="31">
+      <c r="M58" s="37">
         <v>5</v>
       </c>
       <c r="N58" s="2"/>
@@ -2419,7 +2434,7 @@
       <c r="E59" s="29">
         <v>6</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="32"/>
       <c r="G59" s="2" t="s">
         <v>45</v>
       </c>
@@ -2430,7 +2445,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="31">
+      <c r="M59" s="37">
         <v>5</v>
       </c>
       <c r="N59" s="2"/>
@@ -2451,7 +2466,7 @@
       <c r="E60" s="29">
         <v>8</v>
       </c>
-      <c r="F60" s="33"/>
+      <c r="F60" s="32"/>
       <c r="G60" s="2" t="s">
         <v>45</v>
       </c>
@@ -2462,7 +2477,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="31">
+      <c r="M60" s="37">
         <v>5</v>
       </c>
       <c r="N60" s="2"/>
@@ -2483,7 +2498,7 @@
       <c r="E61" s="29">
         <v>6</v>
       </c>
-      <c r="F61" s="33"/>
+      <c r="F61" s="32"/>
       <c r="G61" s="2" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2509,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="31">
+      <c r="M61" s="37">
         <v>4</v>
       </c>
       <c r="N61" s="2"/>
@@ -2515,7 +2530,7 @@
       <c r="E62" s="29">
         <v>3</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="32"/>
       <c r="G62" s="2" t="s">
         <v>48</v>
       </c>
@@ -2526,7 +2541,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="31">
+      <c r="M62" s="37">
         <v>4</v>
       </c>
       <c r="N62" s="2"/>
@@ -2547,18 +2562,18 @@
       <c r="E63" s="28">
         <v>58</v>
       </c>
-      <c r="F63" s="33"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="32"/>
+      <c r="G63" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17" t="s">
+      <c r="H63" s="32"/>
+      <c r="I63" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="30">
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="41">
         <v>2</v>
       </c>
       <c r="N63" s="2"/>
@@ -2576,15 +2591,15 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="31">
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="42">
         <v>52</v>
       </c>
       <c r="N64" s="2"/>
@@ -5781,18 +5796,22 @@
       <c r="M201" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:M51"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:M51"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
